--- a/templates/QARSF/RSTK-9519-Disassembly Work Order.xlsx
+++ b/templates/QARSF/RSTK-9519-Disassembly Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6019C4A5-A17E-4E8E-AE7D-A6737ACD7D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D6D88-263C-426C-AD04-DB6AE02343D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Disassembly WO" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AE76E0-FB9A-4E01-B002-1F029404FF4C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -696,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
@@ -730,10 +730,10 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -744,10 +744,10 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
@@ -764,10 +764,10 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -778,10 +778,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
@@ -798,10 +798,10 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -812,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -835,7 +835,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/QARSF/RSTK-9519-Disassembly Work Order.xlsx
+++ b/templates/QARSF/RSTK-9519-Disassembly Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D6D88-263C-426C-AD04-DB6AE02343D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156AAE12-2842-45ED-A8B8-09EA0BC59532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Disassembly WO" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Disassembly item name</t>
   </si>
@@ -150,16 +150,34 @@
   </si>
   <si>
     <t>Project Charge Code</t>
+  </si>
+  <si>
+    <t>OH (On Hand Loc)</t>
+  </si>
+  <si>
+    <t>Pro-Dis01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,9 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,10 +559,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -557,10 +576,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -574,10 +593,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -586,23 +605,6 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -615,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AE76E0-FB9A-4E01-B002-1F029404FF4C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,6 +680,12 @@
       <c r="D2">
         <v>3</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
       <c r="H2" t="s">
         <v>33</v>
       </c>
@@ -701,6 +709,12 @@
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -715,6 +729,12 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
@@ -735,6 +755,12 @@
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -749,6 +775,12 @@
       <c r="D6">
         <v>3</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
@@ -769,6 +801,12 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -783,6 +821,12 @@
       <c r="D8">
         <v>3</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
@@ -803,6 +847,12 @@
       <c r="D9">
         <v>3</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -817,6 +867,12 @@
       <c r="D10">
         <v>3</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
@@ -825,6 +881,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -835,7 +892,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
